--- a/src/test/java/day12_webtables_excel/ulkeler.xlsx
+++ b/src/test/java/day12_webtables_excel/ulkeler.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="580">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1782,6 +1782,15 @@
   </si>
   <si>
     <t>1000000</t>
+  </si>
+  <si>
+    <t>Nufuss</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>3000000</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:D17"/>
@@ -2263,6 +2272,9 @@
       <c r="E1" t="s">
         <v>575</v>
       </c>
+      <c r="G1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2294,8 +2306,8 @@
       <c r="E3" t="s">
         <v>576</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>573</v>
+      <c r="F3" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2352,6 +2364,9 @@
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
